--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_08-01.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_08-01.xlsx
@@ -2412,7 +2412,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="로즈몬티스"] 쓸데없는 짓 하지 마. 날 다치도록 내버려 둘 생각 없으니까, 넌 아무것도 할 수 없어.
+    <t xml:space="preserve">[name="로즈몬티스"] 쓸데없는 짓 하지 마. 날 공격하게 내버려 둘 생각 없으니까, 넌 아무것도 할 수 없어.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_08-01.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_08-01.xlsx
@@ -1760,7 +1760,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The Infected howls, or perhaps it’s more of a laugh, as he falls from the seventh floor to the ground, and is immediately obliterated by the ballistas.
+    <t xml:space="preserve">The Infected howls, or perhaps it's more of a laugh, as he falls from the seventh floor to the ground, and is immediately obliterated by the ballistas.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_08-01.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_08-01.xlsx
@@ -2468,7 +2468,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="리유니온 감염자"] 몽땅 엔진에 때려 넣었더니 파바박 하며 육즙이 터져 나오더군, 크하핫…….!
+    <t xml:space="preserve">[name="리유니온 감염자"] 몽땅 엔진에 때려 넣었더니 파바박 하며 육즙이 터져 나오더군, 크하핫……!
 </t>
   </si>
   <si>
